--- a/mock_tables/service_map.xlsx
+++ b/mock_tables/service_map.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtse\Documents\Python Scripts\epg wkg\2022-08-10 Rate Card Flask Demo\mock_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtse\source\Workspaces\QuoteTestApp\mock_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D41F260-D042-4439-9293-2DBEA3B088F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4DB6DE-E9A3-4E42-961E-9384F52E6D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>ORIGINAL_SERVICE</t>
   </si>
@@ -79,6 +90,54 @@
   </si>
   <si>
     <t>CRDC</t>
+  </si>
+  <si>
+    <t>USPS Priority Mail Standard</t>
+  </si>
+  <si>
+    <t>USPS Express Mail Standard</t>
+  </si>
+  <si>
+    <t>USPS Priority Mail</t>
+  </si>
+  <si>
+    <t>USPS Express Mail</t>
+  </si>
+  <si>
+    <t>PMIST</t>
+  </si>
+  <si>
+    <t>EMIST</t>
+  </si>
+  <si>
+    <t>PMIPR</t>
+  </si>
+  <si>
+    <t>PMEI</t>
+  </si>
+  <si>
+    <t>ETOE Unregistered</t>
+  </si>
+  <si>
+    <t>ETUR</t>
+  </si>
+  <si>
+    <t>ETOE Registered</t>
+  </si>
+  <si>
+    <t>ETR</t>
+  </si>
+  <si>
+    <t>ETOE Packet Tracked</t>
+  </si>
+  <si>
+    <t>ETPT</t>
+  </si>
+  <si>
+    <t>ETOE Parcel</t>
+  </si>
+  <si>
+    <t>ETP</t>
   </si>
 </sst>
 </file>
@@ -396,11 +455,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -508,6 +565,94 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>113</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>110</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mock_tables/service_map.xlsx
+++ b/mock_tables/service_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtse\source\Workspaces\QuoteTestApp\mock_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4DB6DE-E9A3-4E42-961E-9384F52E6D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6DB10-24EF-4BB2-8450-534FA2B78F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,18 +92,6 @@
     <t>CRDC</t>
   </si>
   <si>
-    <t>USPS Priority Mail Standard</t>
-  </si>
-  <si>
-    <t>USPS Express Mail Standard</t>
-  </si>
-  <si>
-    <t>USPS Priority Mail</t>
-  </si>
-  <si>
-    <t>USPS Express Mail</t>
-  </si>
-  <si>
     <t>PMIST</t>
   </si>
   <si>
@@ -138,6 +126,18 @@
   </si>
   <si>
     <t>ETP</t>
+  </si>
+  <si>
+    <t>Priority Mail International (PMI) Drop Ship</t>
+  </si>
+  <si>
+    <t>Priority Mail International (PMI) Standard</t>
+  </si>
+  <si>
+    <t>Priority Mail Express International (PMEI) Standard</t>
+  </si>
+  <si>
+    <t>Priority Mail Express International (PMEI) Drop Ship</t>
   </si>
 </sst>
 </file>
@@ -570,10 +570,10 @@
         <v>113</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,10 +581,10 @@
         <v>114</v>
       </c>
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,10 +592,10 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -603,10 +603,10 @@
         <v>62</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -614,10 +614,10 @@
         <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,10 +625,10 @@
         <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -636,10 +636,10 @@
         <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,10 +647,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/mock_tables/service_map.xlsx
+++ b/mock_tables/service_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rtse\source\Workspaces\QuoteTestApp\mock_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C6DB10-24EF-4BB2-8450-534FA2B78F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F83F412-5B3C-4F15-B481-64CE3680C967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>ORIGINAL_SERVICE</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>Priority Mail Express International (PMEI) Drop Ship</t>
+  </si>
+  <si>
+    <t>E-Packet DDP</t>
+  </si>
+  <si>
+    <t>EPSDP</t>
   </si>
 </sst>
 </file>
@@ -455,9 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -653,6 +661,17 @@
         <v>29</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>98</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
